--- a/diagrama de gantt.xlsx
+++ b/diagrama de gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EstudianteUC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\IDEA-PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36D1689-E037-4D04-AEB7-1B22120A403D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A896C-C818-4B78-8ABF-529E26C44254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagrama de Gantt" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Inicio</t>
   </si>
@@ -42,104 +42,77 @@
     <t>Actividades</t>
   </si>
   <si>
-    <t>Arquitectura &amp; Dataset</t>
-  </si>
-  <si>
-    <t>Definición de arquitectura del sistema; Preparación del dataset (39 categorías); Configuración de entorno de entrenamiento (GPU, PyTorch)</t>
-  </si>
-  <si>
-    <t>Captura &amp; Entrenamiento básico</t>
-  </si>
-  <si>
-    <t>Implementar módulo de captura de imágenes (cámara/galería); Entrenamiento inicial del CNN (sano/enfermo); Verificación de cultivo correcto</t>
-  </si>
-  <si>
-    <t>Clasificación &amp; Confianza</t>
-  </si>
-  <si>
-    <t>Extender modelo CNN para clasificación por enfermedad; Mostrar nombre de enfermedad detectada; Implementar porcentaje de confianza</t>
-  </si>
-  <si>
-    <t>Múltiples imágenes &amp; Calidad</t>
-  </si>
-  <si>
-    <t>Incorporar análisis de múltiples imágenes por cultivo; Validar calidad de imágenes capturadas (borrosas/incompletas)</t>
-  </si>
-  <si>
-    <t>Recomendaciones iniciales</t>
-  </si>
-  <si>
-    <t>Agregar módulo de recomendaciones iniciales; Implementar ejemplos visuales de hojas sanas/enfermas</t>
-  </si>
-  <si>
-    <t>Consejos &amp; Severidad</t>
-  </si>
-  <si>
-    <t>Incluir consejos preventivos por cultivo; Clasificación de severidad (leve, moderada, grave); Sugerencias básicas de fertilización/pesticidas</t>
-  </si>
-  <si>
-    <t>Modo Offline &amp; Historial</t>
-  </si>
-  <si>
-    <t>Implementar modo offline; Guardar historial de diagnósticos; Añadir notas en diagnósticos</t>
-  </si>
-  <si>
-    <t>Optimización &amp; Reportes</t>
-  </si>
-  <si>
-    <t>Optimización de la app para móviles de bajo costo (2GB RAM); Exportación de reportes PDF/impresión; Incorporar idioma Quechua/Español</t>
-  </si>
-  <si>
-    <t>Mantenimiento del modelo</t>
-  </si>
-  <si>
-    <t>Implementar actualización del modelo CNN; Generar métricas de rendimiento (matriz de confusión, precisión, recall); Configurar backups automáticos; Guardar imágenes anónimas</t>
-  </si>
-  <si>
     <t>Épicas/HU</t>
   </si>
   <si>
-    <t>Épica 4 (HU7, HU16 setup)</t>
-  </si>
-  <si>
-    <t>Épica 1 (HU1, HU2, HU9)</t>
-  </si>
-  <si>
-    <t>Épica 1 (HU10, HU22)</t>
-  </si>
-  <si>
-    <t>Épica 1 (HU24, HU29)</t>
-  </si>
-  <si>
-    <t>Épica 2 (HU3, HU15)</t>
-  </si>
-  <si>
-    <t>Épica 2 (HU18, HU19, HU26)</t>
-  </si>
-  <si>
-    <t>Épica 3 (HU4, HU5, HU17)</t>
-  </si>
-  <si>
-    <t>Reportes &amp; Alertas</t>
-  </si>
-  <si>
-    <t>Generar reportes PDF/Excel para técnicos e instituciones; Implementar alertas comunitarias por brotes; Notificaciones de nuevas enfermedades; Exportar dataset/datos anonimizados</t>
-  </si>
-  <si>
-    <t>Épica 3 (HU25, HU30, HU13)</t>
-  </si>
-  <si>
-    <t>Épica 4 (HU7, HU16, HU27, HU28)</t>
-  </si>
-  <si>
-    <t>Épica 5 (HU6, HU8, HU20, HU11, HU21)</t>
+    <t>Preparación &amp; Configuración</t>
+  </si>
+  <si>
+    <t>Configuración del entorno; Recolección y organización del dataset; Preprocesamiento de imágenes; Diseño de la CNN base</t>
+  </si>
+  <si>
+    <t>Épica 1 (HU-1 a HU-4)</t>
+  </si>
+  <si>
+    <t>Funcionalidades Básicas</t>
+  </si>
+  <si>
+    <t>Clasificación sana/enferma; Detección de cultivo; Diagnóstico específico; Nivel de confianza; Interfaz web; Subida de imágenes</t>
+  </si>
+  <si>
+    <t>Épica 2 (HU-5 a HU-10)</t>
+  </si>
+  <si>
+    <t>Optimización Inicial del Modelo</t>
+  </si>
+  <si>
+    <t>Entrenamiento con dataset ampliado; Transfer learning; Métricas de validación; Gráficos de métricas; Optimización para web; Validación externa</t>
+  </si>
+  <si>
+    <t>Épica 3 (HU-11 a HU-13, HU-23, HU-25, HU-27)</t>
+  </si>
+  <si>
+    <t>Experiencia de Usuario I</t>
+  </si>
+  <si>
+    <t>Historial de diagnósticos; Ejemplos visuales; Recomendaciones básicas</t>
+  </si>
+  <si>
+    <t>Épica 4 (HU-14, HU-15, HU-16)</t>
+  </si>
+  <si>
+    <t>Experiencia de Usuario II</t>
+  </si>
+  <si>
+    <t>Clasificación de severidad; Validación de calidad de imagen; Notas en diagnósticos; Alertas tempranas</t>
+  </si>
+  <si>
+    <t>Épica 4 (HU-17, HU-18, HU-24, HU-26)</t>
+  </si>
+  <si>
+    <t>Reportes y Exportaciones</t>
+  </si>
+  <si>
+    <t>Reportes PDF; Exportación de datos anonimizados; Soporte multilenguaje; Retroalimentación; Manual de usuario</t>
+  </si>
+  <si>
+    <t>Épica 5 (HU-19 a HU-22, HU-30)</t>
+  </si>
+  <si>
+    <t>Mantenimiento y Documentación</t>
+  </si>
+  <si>
+    <t>Backup automático del modelo; Documentación técnica</t>
+  </si>
+  <si>
+    <t>Épica 6 (HU-28, HU-29)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +135,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -209,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -218,29 +199,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -324,7 +314,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -351,48 +341,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Diagrama de Gantt'!$A$3:$A$12</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Diagrama de Gantt'!$A$3:$A$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Diagrama de Gantt'!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Arquitectura &amp; Dataset</c:v>
+                  <c:v>Preparación &amp; Configuración</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Captura &amp; Entrenamiento básico</c:v>
+                  <c:v>Funcionalidades Básicas</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Clasificación &amp; Confianza</c:v>
+                  <c:v>Optimización Inicial del Modelo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Múltiples imágenes &amp; Calidad</c:v>
+                  <c:v>Experiencia de Usuario I</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Recomendaciones iniciales</c:v>
+                  <c:v>Experiencia de Usuario II</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Consejos &amp; Severidad</c:v>
+                  <c:v>Reportes y Exportaciones</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Modo Offline &amp; Historial</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Optimización &amp; Reportes</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Mantenimiento del modelo</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reportes &amp; Alertas</c:v>
+                  <c:v>Mantenimiento y Documentación</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Diagrama de Gantt'!$C$3:$C$12</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Diagrama de Gantt'!$C$3:$C$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Diagrama de Gantt'!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>45901</c:v>
                 </c:pt>
@@ -413,15 +408,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45943</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45950</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45957</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -469,7 +455,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -502,48 +488,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Diagrama de Gantt'!$A$3:$A$12</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Diagrama de Gantt'!$A$3:$A$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Diagrama de Gantt'!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Arquitectura &amp; Dataset</c:v>
+                  <c:v>Preparación &amp; Configuración</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Captura &amp; Entrenamiento básico</c:v>
+                  <c:v>Funcionalidades Básicas</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Clasificación &amp; Confianza</c:v>
+                  <c:v>Optimización Inicial del Modelo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Múltiples imágenes &amp; Calidad</c:v>
+                  <c:v>Experiencia de Usuario I</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Recomendaciones iniciales</c:v>
+                  <c:v>Experiencia de Usuario II</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Consejos &amp; Severidad</c:v>
+                  <c:v>Reportes y Exportaciones</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Modo Offline &amp; Historial</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Optimización &amp; Reportes</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Mantenimiento del modelo</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reportes &amp; Alertas</c:v>
+                  <c:v>Mantenimiento y Documentación</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Diagrama de Gantt'!$D$3:$D$12</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Diagrama de Gantt'!$D$3:$D$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Diagrama de Gantt'!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -563,15 +554,6 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -666,7 +648,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509319855"/>
@@ -680,7 +662,7 @@
         <c:axId val="509319855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45970"/>
+          <c:max val="45949"/>
           <c:min val="45901"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -725,7 +707,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -741,7 +723,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="419159951"/>
@@ -790,7 +772,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1652,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308ACF3F-2FAC-46D5-B482-DB1A6356571C}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,208 +1665,172 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
+        <v>45901</v>
+      </c>
+      <c r="D3" s="13">
+        <v>7</v>
+      </c>
+      <c r="E3" s="14">
+        <v>45907</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14">
+        <v>45908</v>
+      </c>
+      <c r="D4" s="13">
+        <v>7</v>
+      </c>
+      <c r="E4" s="14">
+        <v>45914</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="14">
+        <v>45915</v>
+      </c>
+      <c r="D5" s="13">
+        <v>7</v>
+      </c>
+      <c r="E5" s="14">
+        <v>45921</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="14">
+        <v>45922</v>
+      </c>
+      <c r="D6" s="13">
+        <v>7</v>
+      </c>
+      <c r="E6" s="14">
+        <v>45928</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="14">
+        <v>45929</v>
+      </c>
+      <c r="D7" s="13">
+        <v>7</v>
+      </c>
+      <c r="E7" s="14">
+        <v>45935</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="14">
+        <v>45936</v>
+      </c>
+      <c r="D8" s="13">
+        <v>7</v>
+      </c>
+      <c r="E8" s="14">
+        <v>45942</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6">
-        <v>45901</v>
-      </c>
-      <c r="D3" s="7">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="14">
+        <v>45943</v>
+      </c>
+      <c r="D9" s="13">
         <v>7</v>
       </c>
-      <c r="E3" s="6">
-        <v>45907</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
+      <c r="E9" s="14">
+        <v>45949</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6">
-        <v>45908</v>
-      </c>
-      <c r="D4" s="7">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6">
-        <v>45914</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>25</v>
-      </c>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6">
-        <v>45915</v>
-      </c>
-      <c r="D5" s="7">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6">
-        <v>45921</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>26</v>
-      </c>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
-        <v>45922</v>
-      </c>
-      <c r="D6" s="7">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6">
-        <v>45928</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6">
-        <v>45929</v>
-      </c>
-      <c r="D7" s="7">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6">
-        <v>45935</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6">
-        <v>45936</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7</v>
-      </c>
-      <c r="E8" s="6">
-        <v>45942</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6">
-        <v>45943</v>
-      </c>
-      <c r="D9" s="7">
-        <v>7</v>
-      </c>
-      <c r="E9" s="6">
-        <v>45949</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6">
-        <v>45950</v>
-      </c>
-      <c r="D10" s="7">
-        <v>7</v>
-      </c>
-      <c r="E10" s="6">
-        <v>45956</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="6">
-        <v>45957</v>
-      </c>
-      <c r="D11" s="7">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6">
-        <v>45963</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="11">
-        <v>45964</v>
-      </c>
-      <c r="D12" s="8">
-        <v>7</v>
-      </c>
-      <c r="E12" s="11">
-        <v>45970</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>35</v>
-      </c>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
